--- a/cypress/downloads/Performance.xlsx
+++ b/cypress/downloads/Performance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <x:si>
     <x:t>ClientName</x:t>
   </x:si>
@@ -61,34 +61,28 @@
     <x:t xml:space="preserve"> -4,54,503.44</x:t>
   </x:si>
   <x:si>
-    <x:t>IGARASHI MOTORS INDIA LIMITED</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2,062.95</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> -1,43,713.67</x:t>
-  </x:si>
-  <x:si>
     <x:t>WHEELS INDIA LIMITED</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> -41,475.60</x:t>
+    <x:t xml:space="preserve"> -50,319.30</x:t>
   </x:si>
   <x:si>
     <x:t>PRIVI SPECIALITY CHEMICALS LIMITED</x:t>
   </x:si>
   <x:si>
-    <x:t>1,684.15</x:t>
+    <x:t>1,566.25</x:t>
   </x:si>
   <x:si>
     <x:t>1,681.04</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve"> -14,463.54</x:t>
+  </x:si>
+  <x:si>
     <x:t>ZERODHA NIFTY 1D RATE LIQUID ETF</x:t>
   </x:si>
   <x:si>
-    <x:t>2,550.60</x:t>
+    <x:t>4,757.60</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -496,7 +490,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F15"/>
+  <x:dimension ref="A1:F14"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -583,7 +577,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="F11" s="0" t="n">
-        <x:v>17.79</x:v>
+        <x:v>14.08</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
@@ -591,79 +585,59 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="B12" s="0" t="n">
-        <x:v>99</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="C12" s="0" t="n">
-        <x:v>611.3</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
+        <x:v>613.45</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="n">
+        <x:v>818</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
       <x:c r="F12" s="0" t="n">
-        <x:v>3.36</x:v>
+        <x:v>6.62</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="n">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="C13" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="n">
-        <x:v>246</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="n">
-        <x:v>649.4</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="n">
-        <x:v>818</x:v>
+      <x:c r="D13" s="0" t="s">
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E13" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F13" s="0" t="n">
-        <x:v>8.86</x:v>
+        <x:v>8.66</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B14" s="0" t="n">
-        <x:v>126</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
+        <x:v>15020</x:v>
+      </x:c>
+      <x:c r="C14" s="0" t="n">
+        <x:v>107.14</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="n">
+        <x:v>106.82</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="E14" s="0" t="n">
-        <x:v>391.86</x:v>
-      </x:c>
       <x:c r="F14" s="0" t="n">
-        <x:v>11.77</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:6">
-      <x:c r="A15" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B15" s="0" t="n">
-        <x:v>9810</x:v>
-      </x:c>
-      <x:c r="C15" s="0" t="n">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="n">
-        <x:v>106.74</x:v>
-      </x:c>
-      <x:c r="E15" s="0" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F15" s="0" t="n">
-        <x:v>58.22</x:v>
+        <x:v>70.64</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
